--- a/Python/PythonApplication1/vergleich opencv sensor.xlsx
+++ b/Python/PythonApplication1/vergleich opencv sensor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\FlappyBird\Python\PythonApplication1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8FC62B-CDE7-4A9D-97A3-2A249EBCEFC3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEF6907-55AB-4628-8DCF-B8A40ABFD66C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="3" xr2:uid="{4F23FB25-3DFA-4758-BA41-60A1962187B4}"/>
   </bookViews>
@@ -179,7 +179,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3025788527190913E-2"/>
+          <c:y val="9.1345123258306557E-2"/>
+          <c:w val="0.9143472353544102"/>
+          <c:h val="0.80984695040129628"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -16217,15 +16227,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -45524,7 +45534,7 @@
   <dimension ref="A1:G1336"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
